--- a/Encode_Decode/draw/data/data.xlsx
+++ b/Encode_Decode/draw/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\OOC\LEDs_Data_Processing\Encode_Decode\draw\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F0180E-A5F1-4D94-B412-B1EABBE48FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D7D310-B589-45CA-BBB5-9EAE42F56033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1485" windowWidth="21600" windowHeight="11295" xr2:uid="{34C2FDE8-F1F1-4A7C-B1F3-A5076A562003}"/>
+    <workbookView xWindow="-25560" yWindow="2190" windowWidth="21600" windowHeight="11295" xr2:uid="{34C2FDE8-F1F1-4A7C-B1F3-A5076A562003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -502,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD238CA0-75E1-44DC-B1A9-B45B4E0B6B52}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,71 +915,71 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="B21" s="4">
+        <v>69</v>
+      </c>
+      <c r="C21" s="4">
+        <v>57</v>
+      </c>
+      <c r="D21" s="4">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4">
+        <v>65</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>1.5</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B22" s="3">
         <v>99</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C22" s="3">
         <v>96</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D22" s="3">
         <v>96</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E22" s="3">
         <v>98</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F22" s="3">
         <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="B22" s="4">
-        <v>98</v>
-      </c>
-      <c r="C22" s="4">
-        <v>95</v>
-      </c>
-      <c r="D22" s="4">
-        <v>96</v>
-      </c>
-      <c r="E22" s="4">
-        <v>93</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.26</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="B23" s="4">
+        <v>98</v>
+      </c>
+      <c r="C23" s="4">
+        <v>95</v>
+      </c>
+      <c r="D23" s="4">
         <v>96</v>
       </c>
-      <c r="C23" s="4">
-        <v>94</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="E23" s="4">
         <v>93</v>
       </c>
-      <c r="E23" s="4">
-        <v>91</v>
-      </c>
       <c r="F23" s="4">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="B24" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C24" s="4">
         <v>94</v>
@@ -988,47 +988,47 @@
         <v>93</v>
       </c>
       <c r="E24" s="4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F24" s="4">
-        <v>1.05</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="B25" s="4">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C25" s="4">
         <v>94</v>
       </c>
       <c r="D25" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E25" s="4">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" s="4">
-        <v>1.42</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="B26" s="4">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D26" s="4">
         <v>92</v>
       </c>
       <c r="E26" s="4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F26" s="4">
         <v>1.42</v>
@@ -1036,81 +1036,101 @@
     </row>
     <row r="27" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="4">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C27" s="4">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E27" s="4">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="F27" s="4">
-        <v>3.33</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="B28" s="4">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C28" s="4">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D28" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E28" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" s="4">
-        <v>3.98</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="B29" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C29" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D29" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="4">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F29" s="4">
-        <v>4.01</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B30" s="4">
+        <v>70</v>
+      </c>
+      <c r="C30" s="4">
+        <v>75</v>
+      </c>
+      <c r="D30" s="4">
+        <v>86</v>
+      </c>
+      <c r="E30" s="4">
+        <v>70</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>2.4</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="4">
         <v>67</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C31" s="4">
         <v>61</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="4">
         <v>76</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <v>63</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>4.99</v>
       </c>
     </row>
